--- a/AAII_Financials/Yearly/CDRO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CDRO_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>83300</v>
+        <v>80000</v>
       </c>
       <c r="E8" s="3">
-        <v>73200</v>
+        <v>70300</v>
       </c>
       <c r="F8" s="3">
-        <v>63900</v>
+        <v>61400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="E9" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="F9" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>70400</v>
+        <v>67600</v>
       </c>
       <c r="E10" s="3">
-        <v>59500</v>
+        <v>57200</v>
       </c>
       <c r="F10" s="3">
-        <v>53900</v>
+        <v>51800</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>47900</v>
+        <v>46000</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -890,7 +890,7 @@
         <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>157000</v>
+        <v>150900</v>
       </c>
       <c r="E17" s="3">
-        <v>88000</v>
+        <v>84500</v>
       </c>
       <c r="F17" s="3">
-        <v>80400</v>
+        <v>77300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-73700</v>
+        <v>-70800</v>
       </c>
       <c r="E18" s="3">
-        <v>-14800</v>
+        <v>-14200</v>
       </c>
       <c r="F18" s="3">
-        <v>-16500</v>
+        <v>-15800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-68800</v>
+        <v>-66200</v>
       </c>
       <c r="E21" s="3">
-        <v>-14400</v>
+        <v>-13800</v>
       </c>
       <c r="F21" s="3">
-        <v>-15500</v>
+        <v>-14900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69600</v>
+        <v>-66900</v>
       </c>
       <c r="E23" s="3">
-        <v>-15300</v>
+        <v>-14700</v>
       </c>
       <c r="F23" s="3">
-        <v>-16800</v>
+        <v>-16100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1102,7 +1102,7 @@
         <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70600</v>
+        <v>-67800</v>
       </c>
       <c r="E26" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="F26" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E27" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="F27" s="3">
-        <v>-16800</v>
+        <v>-16100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E33" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="F33" s="3">
-        <v>-16800</v>
+        <v>-16100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E35" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="F35" s="3">
-        <v>-16800</v>
+        <v>-16100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98500</v>
+        <v>94700</v>
       </c>
       <c r="E41" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F41" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E42" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F42" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>30600</v>
+        <v>29400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>108600</v>
+        <v>104400</v>
       </c>
       <c r="E46" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="F46" s="3">
-        <v>43700</v>
+        <v>42000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1700,10 +1700,10 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>109300</v>
+        <v>105000</v>
       </c>
       <c r="E54" s="3">
-        <v>19300</v>
+        <v>18500</v>
       </c>
       <c r="F54" s="3">
-        <v>45900</v>
+        <v>44100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="F57" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,13 +1912,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>18500</v>
+        <v>17700</v>
       </c>
       <c r="F58" s="3">
-        <v>31400</v>
+        <v>30200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="E59" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F59" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32800</v>
+        <v>31500</v>
       </c>
       <c r="E60" s="3">
-        <v>38400</v>
+        <v>36900</v>
       </c>
       <c r="F60" s="3">
-        <v>56200</v>
+        <v>54000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>22300</v>
+        <v>21400</v>
       </c>
       <c r="F61" s="3">
-        <v>22300</v>
+        <v>21400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38700</v>
+        <v>37200</v>
       </c>
       <c r="E66" s="3">
-        <v>60800</v>
+        <v>58400</v>
       </c>
       <c r="F66" s="3">
-        <v>78500</v>
+        <v>75500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-16400</v>
+        <v>-15700</v>
       </c>
       <c r="E72" s="3">
-        <v>-35300</v>
+        <v>-33900</v>
       </c>
       <c r="F72" s="3">
-        <v>-18400</v>
+        <v>-17600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="E76" s="3">
-        <v>-41500</v>
+        <v>-39900</v>
       </c>
       <c r="F76" s="3">
-        <v>-32600</v>
+        <v>-31300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="E81" s="3">
-        <v>-16900</v>
+        <v>-16200</v>
       </c>
       <c r="F81" s="3">
-        <v>-16800</v>
+        <v>-16100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2513,7 +2513,7 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="E89" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="F89" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>92700</v>
+        <v>89100</v>
       </c>
       <c r="E100" s="3">
         <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,10 +2968,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="E102" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F102" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CDRO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CDRO_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>80000</v>
+        <v>81900</v>
       </c>
       <c r="E8" s="3">
-        <v>70300</v>
+        <v>72000</v>
       </c>
       <c r="F8" s="3">
-        <v>61400</v>
+        <v>62900</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E9" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="F9" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>67600</v>
+        <v>69200</v>
       </c>
       <c r="E10" s="3">
-        <v>57200</v>
+        <v>58600</v>
       </c>
       <c r="F10" s="3">
-        <v>51800</v>
+        <v>53000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46000</v>
+        <v>47100</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -890,7 +890,7 @@
         <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>150900</v>
+        <v>154400</v>
       </c>
       <c r="E17" s="3">
-        <v>84500</v>
+        <v>86500</v>
       </c>
       <c r="F17" s="3">
-        <v>77300</v>
+        <v>79100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-70800</v>
+        <v>-72500</v>
       </c>
       <c r="E18" s="3">
-        <v>-14200</v>
+        <v>-14500</v>
       </c>
       <c r="F18" s="3">
-        <v>-15800</v>
+        <v>-16200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-66200</v>
+        <v>-67700</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
+        <v>-14100</v>
       </c>
       <c r="F21" s="3">
-        <v>-14900</v>
+        <v>-15300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-66900</v>
+        <v>-68400</v>
       </c>
       <c r="E23" s="3">
-        <v>-14700</v>
+        <v>-15100</v>
       </c>
       <c r="F23" s="3">
-        <v>-16100</v>
+        <v>-16500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-67800</v>
+        <v>-69400</v>
       </c>
       <c r="E26" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="F26" s="3">
-        <v>-16100</v>
+        <v>-16400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E27" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="F27" s="3">
-        <v>-16100</v>
+        <v>-16500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E33" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="F33" s="3">
-        <v>-16100</v>
+        <v>-16500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E35" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="F35" s="3">
-        <v>-16100</v>
+        <v>-16500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>94700</v>
+        <v>96900</v>
       </c>
       <c r="E41" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="F41" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E42" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F42" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
-        <v>29400</v>
+        <v>30100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104400</v>
+        <v>106800</v>
       </c>
       <c r="E46" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="F46" s="3">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1700,10 +1700,10 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105000</v>
+        <v>107500</v>
       </c>
       <c r="E54" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="F54" s="3">
-        <v>44100</v>
+        <v>45100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="E57" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="F57" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1915,10 +1915,10 @@
         <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>17700</v>
+        <v>18200</v>
       </c>
       <c r="F58" s="3">
-        <v>30200</v>
+        <v>30900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="E59" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="F59" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>31500</v>
+        <v>32300</v>
       </c>
       <c r="E60" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="F60" s="3">
-        <v>54000</v>
+        <v>55200</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="F61" s="3">
-        <v>21400</v>
+        <v>21900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37200</v>
+        <v>38000</v>
       </c>
       <c r="E66" s="3">
-        <v>58400</v>
+        <v>59800</v>
       </c>
       <c r="F66" s="3">
-        <v>75500</v>
+        <v>77200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15700</v>
+        <v>-16100</v>
       </c>
       <c r="E72" s="3">
-        <v>-33900</v>
+        <v>-34700</v>
       </c>
       <c r="F72" s="3">
-        <v>-17600</v>
+        <v>-18100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="E76" s="3">
-        <v>-39900</v>
+        <v>-40800</v>
       </c>
       <c r="F76" s="3">
-        <v>-31300</v>
+        <v>-32100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="E81" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="F81" s="3">
-        <v>-16100</v>
+        <v>-16500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2513,7 +2513,7 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E89" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89100</v>
+        <v>91200</v>
       </c>
       <c r="E100" s="3">
         <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>-700</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>83800</v>
+        <v>85800</v>
       </c>
       <c r="E102" s="3">
         <v>2900</v>
       </c>
       <c r="F102" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
